--- a/assignments/301.xlsx
+++ b/assignments/301.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Week</t>
   </si>
@@ -50,18 +50,18 @@
 301D</t>
   </si>
   <si>
+    <t>301D</t>
+  </si>
+  <si>
+    <t>301A</t>
+  </si>
+  <si>
+    <t>301C</t>
+  </si>
+  <si>
     <t>301B</t>
   </si>
   <si>
-    <t>301A</t>
-  </si>
-  <si>
-    <t>301D</t>
-  </si>
-  <si>
-    <t>301C</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -86,6 +86,15 @@
     <t>Tuned Mass Damper (cost)</t>
   </si>
   <si>
+    <t>Dynamic Balancing (week)</t>
+  </si>
+  <si>
+    <t>Dynamic Balancing (rank)</t>
+  </si>
+  <si>
+    <t>Dynamic Balancing (cost)</t>
+  </si>
+  <si>
     <t>Pump (week)</t>
   </si>
   <si>
@@ -95,13 +104,13 @@
     <t>Pump (cost)</t>
   </si>
   <si>
-    <t>Dynamic Balancing (week)</t>
-  </si>
-  <si>
-    <t>Dynamic Balancing (rank)</t>
-  </si>
-  <si>
-    <t>Dynamic Balancing (cost)</t>
+    <t>Piezoelectric (week)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (rank)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (cost)</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -559,13 +568,13 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -576,13 +585,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,8 +634,17 @@
       <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -652,47 +670,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1.0001</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1.0001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1.0001</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>4.0001</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -703,31 +712,40 @@
       <c r="N4">
         <v>0.0001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1.0001</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -745,12 +763,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>7.0003</v>
+        <v>8.000299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -794,76 +812,76 @@
         <v>5.118216247002567E-05</v>
       </c>
       <c r="C2">
-        <v>4.000095046369633</v>
+        <v>1.000095046369633</v>
       </c>
       <c r="D2">
         <v>2.000014415961272</v>
       </c>
       <c r="E2">
-        <v>1.000094864944714</v>
+        <v>3.000094864944714</v>
       </c>
       <c r="F2">
-        <v>3.000031183145201</v>
+        <v>4.000031183145201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>4.233264489725756E-05</v>
+        <v>2.000042332644897</v>
       </c>
       <c r="C3">
-        <v>1.000082770259382</v>
+        <v>4.000082770259382</v>
       </c>
       <c r="D3">
-        <v>2.000040919913637</v>
+        <v>1.000040919913637</v>
       </c>
       <c r="E3">
-        <v>3.000054959368767</v>
+        <v>5.495936876730595E-05</v>
       </c>
       <c r="F3">
-        <v>4.000002755911324</v>
+        <v>3.000002755911324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2.000075351310867</v>
+        <v>1.000075351310868</v>
       </c>
       <c r="C4">
-        <v>4.000053814331322</v>
+        <v>5.381433132192782E-05</v>
       </c>
       <c r="D4">
-        <v>1.00003297317165</v>
+        <v>2.00003297317165</v>
       </c>
       <c r="E4">
-        <v>7.884287034284043E-05</v>
+        <v>3.000078842870343</v>
       </c>
       <c r="F4">
-        <v>3.000030319482929</v>
+        <v>4.000030319482929</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.000045349788948</v>
+        <v>4.534978894806515E-05</v>
       </c>
       <c r="C5">
-        <v>1.340416972471647E-05</v>
+        <v>4.000013404169724</v>
       </c>
       <c r="D5">
         <v>2.000040311298645</v>
       </c>
       <c r="E5">
-        <v>3.000020345524068</v>
+        <v>1.000020345524068</v>
       </c>
       <c r="F5">
-        <v>4.000026231334044</v>
+        <v>3.000026231334044</v>
       </c>
     </row>
   </sheetData>
@@ -891,17 +909,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -941,7 +959,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -952,7 +970,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -963,7 +981,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -990,16 +1008,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1234,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1285,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1323,32 +1341,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
